--- a/사이트관리 계정_211227.xlsx
+++ b/사이트관리 계정_211227.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dr_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5821ACB7-829F-4167-B915-05635C7D30DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709AFD8E-0B07-4A41-81F3-5A8FF8702263}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12405" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,6 +396,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,9 +430,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,7 +716,7 @@
   <dimension ref="B4:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -743,20 +743,20 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
@@ -769,7 +769,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -795,7 +795,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -808,11 +808,11 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2"/>
@@ -821,7 +821,7 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
@@ -834,17 +834,17 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -853,86 +853,86 @@
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="16"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="16"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="16"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="16"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="16"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="16"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="16"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
